--- a/Teams/Brighton_stats.xlsx
+++ b/Teams/Brighton_stats.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="StandardStats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ShootingStats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassingStats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PassTypes" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GoalShotCreation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DefensiveActions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PlayingTime" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MiscStats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -4769,7 +4769,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -5984,7 +5984,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8339,7 +8339,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8456,7 +8456,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -9626,7 +9626,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -10094,7 +10094,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -10328,7 +10328,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -10445,7 +10445,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -10796,7 +10796,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20-240</t>
+          <t>20-241</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-138</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>23-131</t>
+          <t>23-132</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>19-180</t>
+          <t>19-181</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>19-323</t>
+          <t>19-324</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20-065</t>
+          <t>20-066</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -11174,7 +11174,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23-261</t>
+          <t>23-262</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>22-043</t>
+          <t>22-044</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>20-166</t>
+          <t>20-167</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -11849,7 +11849,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -12101,7 +12101,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -12185,7 +12185,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -12437,7 +12437,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -12605,7 +12605,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -12689,7 +12689,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -12773,7 +12773,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -13107,7 +13107,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -13359,7 +13359,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -13443,7 +13443,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -13609,7 +13609,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -13859,7 +13859,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -13933,7 +13933,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -14015,7 +14015,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -14664,7 +14664,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -14766,7 +14766,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -14868,7 +14868,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -14970,7 +14970,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -15174,7 +15174,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -15276,7 +15276,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -15480,7 +15480,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -15582,7 +15582,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -15888,7 +15888,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -15990,7 +15990,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -16092,7 +16092,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -16194,7 +16194,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -16296,7 +16296,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -16398,7 +16398,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -16500,7 +16500,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -16602,7 +16602,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -16806,7 +16806,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -16908,7 +16908,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -17010,7 +17010,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -17214,7 +17214,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -17316,7 +17316,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -17520,7 +17520,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -17620,7 +17620,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -18332,7 +18332,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -18488,7 +18488,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -18644,7 +18644,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -18722,7 +18722,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -18800,7 +18800,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -19034,7 +19034,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -19112,7 +19112,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -19190,7 +19190,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -19268,7 +19268,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -19424,7 +19424,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -19580,7 +19580,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -19658,7 +19658,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -19814,7 +19814,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -19892,7 +19892,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -19970,7 +19970,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -20204,7 +20204,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -20282,7 +20282,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -20772,7 +20772,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -20853,7 +20853,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -20934,7 +20934,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -21015,7 +21015,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -21096,7 +21096,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -21258,7 +21258,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -21339,7 +21339,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -21501,7 +21501,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -21582,7 +21582,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -21663,7 +21663,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -21744,7 +21744,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -21825,7 +21825,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -21906,7 +21906,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -21987,7 +21987,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -22068,7 +22068,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -22149,7 +22149,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -22311,7 +22311,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -22392,7 +22392,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -22473,7 +22473,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -22554,7 +22554,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -22635,7 +22635,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -22716,7 +22716,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -22878,7 +22878,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -22959,7 +22959,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -23040,7 +23040,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -23121,7 +23121,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -23555,7 +23555,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -23717,7 +23717,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -23798,7 +23798,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -23879,7 +23879,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -23960,7 +23960,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -24041,7 +24041,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -24446,7 +24446,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -24608,7 +24608,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -24689,7 +24689,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -24770,7 +24770,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -24851,7 +24851,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -24932,7 +24932,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -25013,7 +25013,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -25094,7 +25094,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -25175,7 +25175,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -25256,7 +25256,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -25337,7 +25337,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -25418,7 +25418,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -25499,7 +25499,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -25580,7 +25580,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -25659,7 +25659,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -25740,7 +25740,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -25821,7 +25821,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -25902,7 +25902,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -26357,7 +26357,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -26456,7 +26456,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -26555,7 +26555,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -26654,7 +26654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -26753,7 +26753,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -26852,7 +26852,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -26951,7 +26951,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -27050,7 +27050,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -27149,7 +27149,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -27248,7 +27248,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -27347,7 +27347,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -27545,7 +27545,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -27644,7 +27644,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -27743,7 +27743,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -27842,7 +27842,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -27941,7 +27941,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -28040,7 +28040,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -28337,7 +28337,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -28535,7 +28535,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -28634,7 +28634,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -28733,7 +28733,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -28927,7 +28927,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -29026,7 +29026,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -29125,7 +29125,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -29220,7 +29220,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -29768,7 +29768,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22-214</t>
+          <t>22-215</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -29885,7 +29885,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24-285</t>
+          <t>24-286</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -30002,7 +30002,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27-304</t>
+          <t>27-305</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -30119,7 +30119,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21-076</t>
+          <t>21-077</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -30236,7 +30236,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23-175</t>
+          <t>23-176</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -30353,7 +30353,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22-334</t>
+          <t>22-335</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -30470,7 +30470,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33-064</t>
+          <t>33-065</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -30587,7 +30587,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27-058</t>
+          <t>27-059</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -30704,7 +30704,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33-119</t>
+          <t>33-120</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -30821,7 +30821,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>34-114</t>
+          <t>34-115</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -30938,7 +30938,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21-165</t>
+          <t>21-166</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -31055,7 +31055,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>19-343</t>
+          <t>19-344</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -31172,7 +31172,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20-241</t>
+          <t>20-242</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -31289,7 +31289,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27-041</t>
+          <t>27-042</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -31406,7 +31406,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24-171</t>
+          <t>24-172</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -31523,7 +31523,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>30-075</t>
+          <t>30-076</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -31640,7 +31640,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23-078</t>
+          <t>23-079</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -31757,7 +31757,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24-119</t>
+          <t>24-120</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -31874,7 +31874,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20-293</t>
+          <t>20-294</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -31991,7 +31991,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25-164</t>
+          <t>25-165</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -32108,7 +32108,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25-124</t>
+          <t>25-125</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -32225,7 +32225,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39-075</t>
+          <t>39-076</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -32342,7 +32342,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>21-056</t>
+          <t>21-057</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -32459,7 +32459,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>21-358</t>
+          <t>21-359</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -32576,7 +32576,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20-152</t>
+          <t>20-153</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -32693,7 +32693,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>34-214</t>
+          <t>34-215</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -32810,7 +32810,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>23-282</t>
+          <t>23-283</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>30-243</t>
+          <t>30-244</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -33044,7 +33044,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25-347</t>
+          <t>25-348</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -33161,7 +33161,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22-277</t>
+          <t>22-278</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -33278,7 +33278,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20-240</t>
+          <t>20-241</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -33341,7 +33341,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>21-137</t>
+          <t>21-138</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -33404,7 +33404,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>23-131</t>
+          <t>23-132</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -33467,7 +33467,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>19-180</t>
+          <t>19-181</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -33530,7 +33530,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>19-323</t>
+          <t>19-324</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -33593,7 +33593,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20-065</t>
+          <t>20-066</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -33656,7 +33656,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>23-261</t>
+          <t>23-262</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -33719,7 +33719,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>22-043</t>
+          <t>22-044</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -33782,7 +33782,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>20-166</t>
+          <t>20-167</t>
         </is>
       </c>
       <c r="F42" t="n">

--- a/Teams/Brighton_stats.xlsx
+++ b/Teams/Brighton_stats.xlsx
@@ -7,16 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Matches" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Standard Stats" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shooting Stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Passing Stats" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pass Types" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Goal &amp; Shot Creation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Defensive Actions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Possession" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Playing Time" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Miscellaneous Stats" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_9" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3244,7 +3244,9 @@
       <c r="N36" t="n">
         <v>40</v>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>52471</v>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Adam Webster</t>
@@ -3567,12 +3569,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-05-03</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3587,7 +3589,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3930,7 +3932,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4001,7 +4003,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -4072,7 +4074,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -4143,7 +4145,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -4214,7 +4216,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -4285,7 +4287,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -4356,7 +4358,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -4427,7 +4429,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -4498,7 +4500,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -4569,7 +4571,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -4640,7 +4642,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -4711,7 +4713,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -4782,7 +4784,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -4853,7 +4855,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -4924,7 +4926,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -4995,7 +4997,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -5066,7 +5068,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -5137,7 +5139,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -5208,7 +5210,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -5279,7 +5281,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -5350,7 +5352,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -5421,7 +5423,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -5492,7 +5494,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -5563,7 +5565,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -5634,7 +5636,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -5705,7 +5707,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -5776,7 +5778,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -5845,7 +5847,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -5916,7 +5918,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -5987,7 +5989,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -6432,7 +6434,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -6539,7 +6541,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -6646,7 +6648,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -6753,7 +6755,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -6860,7 +6862,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -6967,7 +6969,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -7074,7 +7076,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -7181,7 +7183,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -7288,7 +7290,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -7395,7 +7397,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -7502,7 +7504,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -7609,7 +7611,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -7716,7 +7718,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -7823,7 +7825,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -7930,7 +7932,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -8037,7 +8039,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -8144,7 +8146,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -8251,7 +8253,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -8358,7 +8360,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -8465,7 +8467,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -8572,7 +8574,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -8679,7 +8681,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -8786,7 +8788,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -8893,7 +8895,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -9000,7 +9002,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -9107,7 +9109,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -9214,7 +9216,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -9321,7 +9323,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -9428,7 +9430,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -9535,7 +9537,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -9642,7 +9644,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20-244</t>
+          <t>20-247</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -9695,7 +9697,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-144</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -9748,7 +9750,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23-135</t>
+          <t>23-138</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -9801,7 +9803,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19-184</t>
+          <t>19-187</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -9854,7 +9856,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-330</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -9907,7 +9909,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20-069</t>
+          <t>20-072</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -9960,7 +9962,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23-265</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -10013,7 +10015,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22-047</t>
+          <t>22-050</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -10066,7 +10068,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20-170</t>
+          <t>20-173</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -10492,7 +10494,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -10556,7 +10558,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -10630,7 +10632,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -10704,7 +10706,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -10778,7 +10780,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -10852,7 +10854,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -10926,7 +10928,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -11000,7 +11002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -11074,7 +11076,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -11148,7 +11150,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -11222,7 +11224,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -11296,7 +11298,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -11370,7 +11372,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -11444,7 +11446,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -11516,7 +11518,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -11590,7 +11592,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -11664,7 +11666,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -11738,7 +11740,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -11812,7 +11814,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -11886,7 +11888,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -11960,7 +11962,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -12034,7 +12036,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -12106,7 +12108,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -12180,7 +12182,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -12252,7 +12254,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -12326,7 +12328,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -12390,7 +12392,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -12462,7 +12464,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -12534,7 +12536,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -12598,7 +12600,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -13014,7 +13016,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -13106,7 +13108,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -13198,7 +13200,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -13290,7 +13292,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -13382,7 +13384,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -13474,7 +13476,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -13566,7 +13568,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -13658,7 +13660,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -13750,7 +13752,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -13842,7 +13844,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -13934,7 +13936,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -14026,7 +14028,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -14118,7 +14120,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -14210,7 +14212,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -14302,7 +14304,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -14394,7 +14396,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -14486,7 +14488,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -14578,7 +14580,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -14670,7 +14672,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -14762,7 +14764,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -14854,7 +14856,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -14946,7 +14948,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -15038,7 +15040,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -15130,7 +15132,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -15222,7 +15224,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -15314,7 +15316,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -15406,7 +15408,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -15498,7 +15500,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -15590,7 +15592,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -15680,7 +15682,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -16105,7 +16107,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -16173,7 +16175,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -16241,7 +16243,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -16309,7 +16311,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -16377,7 +16379,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -16445,7 +16447,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -16513,7 +16515,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -16581,7 +16583,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -16649,7 +16651,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -16717,7 +16719,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -16785,7 +16787,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -16853,7 +16855,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -16921,7 +16923,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -16989,7 +16991,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -17057,7 +17059,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -17125,7 +17127,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -17193,7 +17195,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -17261,7 +17263,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -17329,7 +17331,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -17397,7 +17399,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -17465,7 +17467,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -17533,7 +17535,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -17601,7 +17603,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -17669,7 +17671,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -17737,7 +17739,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -17805,7 +17807,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -17873,7 +17875,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -17941,7 +17943,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -18009,7 +18011,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -18077,7 +18079,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -18440,7 +18442,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -18511,7 +18513,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -18582,7 +18584,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -18653,7 +18655,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -18724,7 +18726,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -18795,7 +18797,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -18866,7 +18868,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -18937,7 +18939,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -19008,7 +19010,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -19079,7 +19081,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -19150,7 +19152,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -19221,7 +19223,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -19292,7 +19294,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -19363,7 +19365,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -19434,7 +19436,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -19505,7 +19507,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -19576,7 +19578,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -19647,7 +19649,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -19718,7 +19720,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -19789,7 +19791,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -19860,7 +19862,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -19931,7 +19933,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -20002,7 +20004,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -20073,7 +20075,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -20144,7 +20146,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -20215,7 +20217,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -20286,7 +20288,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -20357,7 +20359,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -20428,7 +20430,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -20499,7 +20501,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -20868,7 +20870,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -20939,7 +20941,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -21010,7 +21012,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -21081,7 +21083,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -21152,7 +21154,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -21223,7 +21225,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -21294,7 +21296,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -21365,7 +21367,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -21436,7 +21438,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -21507,7 +21509,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -21578,7 +21580,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -21649,7 +21651,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -21720,7 +21722,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -21791,7 +21793,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -21862,7 +21864,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -21933,7 +21935,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -22004,7 +22006,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -22075,7 +22077,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -22146,7 +22148,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -22217,7 +22219,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -22288,7 +22290,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -22359,7 +22361,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -22430,7 +22432,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -22501,7 +22503,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -22572,7 +22574,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -22643,7 +22645,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -22712,7 +22714,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -22783,7 +22785,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -22854,7 +22856,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -22925,7 +22927,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -23331,7 +23333,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -23420,7 +23422,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -23509,7 +23511,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -23598,7 +23600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -23687,7 +23689,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -23776,7 +23778,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -23865,7 +23867,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -23954,7 +23956,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -24043,7 +24045,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -24132,7 +24134,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -24221,7 +24223,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -24310,7 +24312,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -24399,7 +24401,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -24488,7 +24490,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -24577,7 +24579,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -24666,7 +24668,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -24755,7 +24757,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -24844,7 +24846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -24933,7 +24935,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -25022,7 +25024,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -25111,7 +25113,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -25200,7 +25202,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -25289,7 +25291,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -25378,7 +25380,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -25467,7 +25469,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -25556,7 +25558,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -25641,7 +25643,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -25730,7 +25732,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -25819,7 +25821,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -25904,7 +25906,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -26403,7 +26405,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22-218</t>
+          <t>22-221</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -26510,7 +26512,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24-289</t>
+          <t>24-292</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -26617,7 +26619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27-308</t>
+          <t>27-311</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -26724,7 +26726,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21-080</t>
+          <t>21-083</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -26831,7 +26833,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-179</t>
+          <t>23-182</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -26938,7 +26940,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22-338</t>
+          <t>22-341</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -27045,7 +27047,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33-068</t>
+          <t>33-071</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -27152,7 +27154,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>27-062</t>
+          <t>27-065</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -27259,7 +27261,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>33-123</t>
+          <t>33-126</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -27366,7 +27368,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34-118</t>
+          <t>34-121</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -27473,7 +27475,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>21-169</t>
+          <t>21-172</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -27580,7 +27582,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19-347</t>
+          <t>19-350</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -27687,7 +27689,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20-245</t>
+          <t>20-248</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -27794,7 +27796,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>27-045</t>
+          <t>27-048</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -27901,7 +27903,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24-175</t>
+          <t>24-178</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -28008,7 +28010,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>30-079</t>
+          <t>30-082</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -28115,7 +28117,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>23-082</t>
+          <t>23-085</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -28222,7 +28224,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24-123</t>
+          <t>24-126</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -28329,7 +28331,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20-297</t>
+          <t>20-300</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -28436,7 +28438,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25-168</t>
+          <t>25-171</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -28543,7 +28545,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>25-128</t>
+          <t>25-131</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -28650,7 +28652,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>39-079</t>
+          <t>39-082</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -28757,7 +28759,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-060</t>
+          <t>21-063</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -28864,7 +28866,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-362</t>
+          <t>22-000</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -28971,7 +28973,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>20-156</t>
+          <t>20-159</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -29078,7 +29080,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34-218</t>
+          <t>34-221</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -29185,7 +29187,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23-286</t>
+          <t>23-289</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -29292,7 +29294,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>30-247</t>
+          <t>30-250</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -29399,7 +29401,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>25-351</t>
+          <t>25-354</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -29506,7 +29508,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22-281</t>
+          <t>22-284</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -29613,7 +29615,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20-244</t>
+          <t>20-247</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -29666,7 +29668,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21-141</t>
+          <t>21-144</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -29719,7 +29721,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23-135</t>
+          <t>23-138</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -29772,7 +29774,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>19-184</t>
+          <t>19-187</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -29825,7 +29827,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19-327</t>
+          <t>19-330</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -29878,7 +29880,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20-069</t>
+          <t>20-072</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -29931,7 +29933,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>23-265</t>
+          <t>23-268</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -29984,7 +29986,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22-047</t>
+          <t>22-050</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -30037,7 +30039,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20-170</t>
+          <t>20-173</t>
         </is>
       </c>
       <c r="E42" t="n">
